--- a/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16.XLSX
+++ b/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16.XLSX
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DATA\EM_ENT\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C9F38-CEF7-44F3-83CB-4C2BE1D4D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA586CF7-BB07-429B-94C9-2B5D09152FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="961">
   <si>
     <t>Cause</t>
   </si>
@@ -3033,12 +3034,351 @@
       <t>, J47-J59, J65-J65.0, J71-J79, J81.9, J83, J85.9, J87-J89, J90.9, J93.6, J97-J98.0, J98.4-J99.8, K21-K21.9, K22.7, K31.9-K34, K39, K47-K49, K53-K54, K63-K63.4, K63.8-K63.9, K69, K70.4-K70.9, K78-K79, K84, K87-K89, K92, K92.9-K93, K96-K99, L06-L07, L09, L15-L19, L31-L39, L69, L77-L79, N09, N13-N13.5, N13.7-N13.9, N24, N28.8-N28.9, N38, N39.9-N40.9, N54-N59, N66-N69, N78-N79, N84, N84.2-N86, N88-N90.9, N92-N94.9, N95.0, O08-O08.9, O17-O19, O27, O37-O39, O49-O59, O78-O79, O93-O95.9, P06, P16-P18, P30-P34.2, P40-P49, P62-P69, P73, P79, P82, P85-P89, P96.9-P99.9, Q08-Q10.3, Q19, Q29-Q29., Q36.0-Q36.9, Q46-Q49, Q88, Q89.9, Q94, Q99.9-R01.2, R07, R07.1-R07.9, R31-R31.9</t>
     </r>
   </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C14-C14.9</t>
+  </si>
+  <si>
+    <t>C22.9</t>
+  </si>
+  <si>
+    <t>C26-C29</t>
+  </si>
+  <si>
+    <t>C35-C36</t>
+  </si>
+  <si>
+    <t>C39-C39.9</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C46-C46.9</t>
+  </si>
+  <si>
+    <t>C55-C55.9</t>
+  </si>
+  <si>
+    <t>C57.9</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C63.9</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>C68.9</t>
+  </si>
+  <si>
+    <t>C74-C74.9</t>
+  </si>
+  <si>
+    <t>C75.9-C80.9</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>C83.9</t>
+  </si>
+  <si>
+    <t>C85.1</t>
+  </si>
+  <si>
+    <t>C85.9</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>C94.6</t>
+  </si>
+  <si>
+    <t>C97-D00.0</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D01.4-D02</t>
+  </si>
+  <si>
+    <t>D02.4-D02.9</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D07.3</t>
+  </si>
+  <si>
+    <t>D07.6-D09</t>
+  </si>
+  <si>
+    <t>D09.1</t>
+  </si>
+  <si>
+    <t>D09.7</t>
+  </si>
+  <si>
+    <t>D09.9-D10</t>
+  </si>
+  <si>
+    <t>D10.9</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D13.9-D14</t>
+  </si>
+  <si>
+    <t>D14.4</t>
+  </si>
+  <si>
+    <t>D17-D21.9</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D28.9-D29</t>
+  </si>
+  <si>
+    <t>D29.9-D30</t>
+  </si>
+  <si>
+    <t>D30.9</t>
+  </si>
+  <si>
+    <t>D36.0</t>
+  </si>
+  <si>
+    <t>D36.9-D37.0</t>
+  </si>
+  <si>
+    <t>D37.6-D38</t>
+  </si>
+  <si>
+    <t>D38.6-D39.0</t>
+  </si>
+  <si>
+    <t>D39.7</t>
+  </si>
+  <si>
+    <t>D39.9-D40</t>
+  </si>
+  <si>
+    <t>D40.9-D41</t>
+  </si>
+  <si>
+    <t>D41.9</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D44.9</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D48.7-D49.1</t>
+  </si>
+  <si>
+    <t>D49.5</t>
+  </si>
+  <si>
+    <t>D49.7-D49.9</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D75.9</t>
+  </si>
+  <si>
+    <t>D79-D85</t>
+  </si>
+  <si>
+    <t>D87-D88</t>
+  </si>
+  <si>
+    <t>D89.8-D99</t>
+  </si>
+  <si>
+    <t>I00.0</t>
+  </si>
+  <si>
+    <t>I03-I04.</t>
+  </si>
+  <si>
+    <t>I14-I14.</t>
+  </si>
+  <si>
+    <t>I16-I19</t>
+  </si>
+  <si>
+    <t>I29-I29.9</t>
+  </si>
+  <si>
+    <t>I44-I45.9</t>
+  </si>
+  <si>
+    <t>I49-I49.9</t>
+  </si>
+  <si>
+    <t>I51</t>
+  </si>
+  <si>
+    <t>I51.6-I59</t>
+  </si>
+  <si>
+    <t>I90-I94</t>
+  </si>
+  <si>
+    <t>I96-I96.9</t>
+  </si>
+  <si>
+    <t>I98.4-I98.8</t>
+  </si>
+  <si>
+    <t>I99-ID5.9</t>
+  </si>
+  <si>
+    <t>J02.9</t>
+  </si>
+  <si>
+    <t>J03.9</t>
+  </si>
+  <si>
+    <t>J04.3</t>
+  </si>
+  <si>
+    <t>J06</t>
+  </si>
+  <si>
+    <t>J06.9</t>
+  </si>
+  <si>
+    <t>J40-J40.9</t>
+  </si>
+  <si>
+    <t>J47-J59</t>
+  </si>
+  <si>
+    <t>J65-J65.0</t>
+  </si>
+  <si>
+    <t>J71-J79</t>
+  </si>
+  <si>
+    <t>J81.9</t>
+  </si>
+  <si>
+    <t>J83</t>
+  </si>
+  <si>
+    <t>J85.9</t>
+  </si>
+  <si>
+    <t>J87-J89</t>
+  </si>
+  <si>
+    <t>J90.9</t>
+  </si>
+  <si>
+    <t>J93.6</t>
+  </si>
+  <si>
+    <t>J97-J98.0</t>
+  </si>
+  <si>
+    <t>J98.4-J99.8</t>
+  </si>
+  <si>
+    <t>C69.9</t>
+  </si>
+  <si>
+    <t>C91.1</t>
+  </si>
+  <si>
+    <t>C91.4-C91.5</t>
+  </si>
+  <si>
+    <t>C91.7-C91.9</t>
+  </si>
+  <si>
+    <t>C92.7-C92.9</t>
+  </si>
+  <si>
+    <t>C93.2</t>
+  </si>
+  <si>
+    <t>C93.5-C93.7</t>
+  </si>
+  <si>
+    <t>C93.9</t>
+  </si>
+  <si>
+    <t>E12-E14.9</t>
+  </si>
+  <si>
+    <t>I37.9</t>
+  </si>
+  <si>
+    <t>I42-I42.0</t>
+  </si>
+  <si>
+    <t>I42.9</t>
+  </si>
+  <si>
+    <t>I51.5</t>
+  </si>
+  <si>
+    <t>I64-I64.9</t>
+  </si>
+  <si>
+    <t>I67</t>
+  </si>
+  <si>
+    <t>I67.8-I68</t>
+  </si>
+  <si>
+    <t>I68.8-I69</t>
+  </si>
+  <si>
+    <t>I69.4-I69.9</t>
+  </si>
+  <si>
+    <t>J07-J08</t>
+  </si>
+  <si>
+    <t>J15.9</t>
+  </si>
+  <si>
+    <t>J17-J19.6</t>
+  </si>
+  <si>
+    <t>J22-J29</t>
+  </si>
+  <si>
+    <t>J64-J64.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3078,6 +3418,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3177,7 +3525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3200,6 +3548,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3509,11 +3858,11 @@
   </sheetPr>
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B292" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B293" sqref="B293"/>
+      <selection pane="bottomRight" activeCell="A293" sqref="A293:B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,4 +7168,941 @@
     <ignoredError sqref="C23:C254" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E4976D-7BC7-4916-95D9-B4832B769E3B}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>806</v>
+      </c>
+      <c r="B16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>804</v>
+      </c>
+      <c r="B18" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>804</v>
+      </c>
+      <c r="B20" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>804</v>
+      </c>
+      <c r="B21" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B22" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>804</v>
+      </c>
+      <c r="B23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>806</v>
+      </c>
+      <c r="B24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>806</v>
+      </c>
+      <c r="B25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>806</v>
+      </c>
+      <c r="B26" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>806</v>
+      </c>
+      <c r="B27" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>806</v>
+      </c>
+      <c r="B29" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>806</v>
+      </c>
+      <c r="B30" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B31" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>804</v>
+      </c>
+      <c r="B32" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>804</v>
+      </c>
+      <c r="B33" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>804</v>
+      </c>
+      <c r="B34" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>804</v>
+      </c>
+      <c r="B35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>804</v>
+      </c>
+      <c r="B36" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>804</v>
+      </c>
+      <c r="B37" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>804</v>
+      </c>
+      <c r="B38" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>804</v>
+      </c>
+      <c r="B39" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>804</v>
+      </c>
+      <c r="B40" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>804</v>
+      </c>
+      <c r="B41" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B42" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>804</v>
+      </c>
+      <c r="B43" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>804</v>
+      </c>
+      <c r="B44" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>804</v>
+      </c>
+      <c r="B45" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>804</v>
+      </c>
+      <c r="B46" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>804</v>
+      </c>
+      <c r="B47" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>804</v>
+      </c>
+      <c r="B48" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>804</v>
+      </c>
+      <c r="B49" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>804</v>
+      </c>
+      <c r="B50" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>804</v>
+      </c>
+      <c r="B51" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>804</v>
+      </c>
+      <c r="B52" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>804</v>
+      </c>
+      <c r="B53" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>804</v>
+      </c>
+      <c r="B54" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>804</v>
+      </c>
+      <c r="B55" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>804</v>
+      </c>
+      <c r="B56" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>804</v>
+      </c>
+      <c r="B57" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>804</v>
+      </c>
+      <c r="B58" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>804</v>
+      </c>
+      <c r="B59" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>804</v>
+      </c>
+      <c r="B60" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>804</v>
+      </c>
+      <c r="B61" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>804</v>
+      </c>
+      <c r="B62" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>804</v>
+      </c>
+      <c r="B63" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>804</v>
+      </c>
+      <c r="B64" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>804</v>
+      </c>
+      <c r="B65" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>804</v>
+      </c>
+      <c r="B66" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>804</v>
+      </c>
+      <c r="B67" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>804</v>
+      </c>
+      <c r="B68" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>804</v>
+      </c>
+      <c r="B69" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>806</v>
+      </c>
+      <c r="B70" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>804</v>
+      </c>
+      <c r="B71" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>804</v>
+      </c>
+      <c r="B72" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>804</v>
+      </c>
+      <c r="B73" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>804</v>
+      </c>
+      <c r="B74" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>804</v>
+      </c>
+      <c r="B75" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>806</v>
+      </c>
+      <c r="B76" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>806</v>
+      </c>
+      <c r="B77" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>806</v>
+      </c>
+      <c r="B78" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>804</v>
+      </c>
+      <c r="B79" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>804</v>
+      </c>
+      <c r="B80" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>804</v>
+      </c>
+      <c r="B81" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>806</v>
+      </c>
+      <c r="B82" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>804</v>
+      </c>
+      <c r="B83" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>806</v>
+      </c>
+      <c r="B84" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>806</v>
+      </c>
+      <c r="B85" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>806</v>
+      </c>
+      <c r="B86" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>806</v>
+      </c>
+      <c r="B87" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>806</v>
+      </c>
+      <c r="B88" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>804</v>
+      </c>
+      <c r="B89" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>804</v>
+      </c>
+      <c r="B90" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>804</v>
+      </c>
+      <c r="B91" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B92" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>804</v>
+      </c>
+      <c r="B93" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>804</v>
+      </c>
+      <c r="B94" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>804</v>
+      </c>
+      <c r="B95" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>804</v>
+      </c>
+      <c r="B96" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>804</v>
+      </c>
+      <c r="B97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>806</v>
+      </c>
+      <c r="B98" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>806</v>
+      </c>
+      <c r="B99" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>806</v>
+      </c>
+      <c r="B100" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>806</v>
+      </c>
+      <c r="B101" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>804</v>
+      </c>
+      <c r="B102" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>804</v>
+      </c>
+      <c r="B103" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>806</v>
+      </c>
+      <c r="B104" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>804</v>
+      </c>
+      <c r="B105" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>804</v>
+      </c>
+      <c r="B106" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>804</v>
+      </c>
+      <c r="B107" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>804</v>
+      </c>
+      <c r="B108" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>804</v>
+      </c>
+      <c r="B109" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>804</v>
+      </c>
+      <c r="B110" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>804</v>
+      </c>
+      <c r="B111" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>804</v>
+      </c>
+      <c r="B112" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>804</v>
+      </c>
+      <c r="B113" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>804</v>
+      </c>
+      <c r="B114" t="s">
+        <v>937</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B115">
+    <sortCondition ref="B2:B115"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16.XLSX
+++ b/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16.XLSX
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DATA\EM_ENT\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DATA\IHME_RESULTS\2024_0516_GBD_2021\GBD_CAUSE_ICD_CODE_MAPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA586CF7-BB07-429B-94C9-2B5D09152FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1809B2-D378-4AA1-8FB6-97C4291DFDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="60" windowWidth="28800" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="848">
   <si>
     <t>Cause</t>
   </si>
@@ -749,6 +748,9 @@
     <t>Neoplasms</t>
   </si>
   <si>
+    <t>C00-C13.9, C15-C22.8, C23-C25.9, C30-C34.9, C37-C38.8, C40-C41.9, C43-C45.9, C47-C54.9, C56-C57.8, C60-C63.8, C64-C67.9, C68.0-C68.8, C69.0-C69.8, C70-C73.9, C75-C75.8, C81-C82.9, C83.0-C83.8, C84-C85.0, C85.2-C85.8, C86-C86.6, C88-C91.0, C91.2-C91.3, C91.6, C92-C92.6, C93-C93.1, C93.3, C93.8, C94-C94.5, C94.7-C96.9, D00.1-D00.2, D01.0-D01.3, D02.0-D02.3, D03-D06.9, D07.0-D07.2, D07.4-D07.5, D09.0, D09.2-D09.3, D09.8, D10.0-D10.7, D11-D12.9, D13.0-D13.7, D14.0-D14.3, D15-D16.9, D22-D24.9, D26.0-D27.9, D28.0-D28.1, D28.7, D29.0-D29.8, D30.0-D30.8, D31-D36, D36.1-D36.7, D37.1-D37.5, D38.0-D38.5, D39.1-D39.2, D39.8, D40.0-D40.8, D41.0-D41.8, D42-D43.9, D44.0-D44.8, D45-D47.9, D48.0-D48.6, D49.2-D49.4, D49.6, K62.0-K62.1, K63.5, N60-N60.9, N84.0-N84.1, N87-N87.9</t>
+  </si>
+  <si>
     <t>140-148.9, 150-155.1, 155.3-158.9, 160-164.9, 170-175.9, 180-180.9, 182-183.8, 184.0-184.4, 184.8, 185-186.9, 187.1-187.8, 188-188.9, 189.0-189.8, 190-190.8, 191-193.9, 194.1-194.8, 200-202.8, 203-204.0, 204.2, 205-205.3, 206-206.1, 207-208.9, 209.0-209.1, 209.4-209.5, 210.0-210.9, 211.0-211.8, 212.0-212.8, 213-213.9, 217-217.8, 219.0, 220-220.9, 221.0-221.8, 222.0-222.8, 223.0-223.8, 224-228.9, 229.0, 229.8, 230.1-230.8, 231.0-231.2, 232-232.9, 233.0-233.2, 233.4-233.5, 233.7, 234.0-234.8, 235.0, 235.4, 235.6-235.8, 236.1-236.2, 236.4-236.5, 236.7, 237-237.3, 237.5-237.9, 238.0-238.9, 239.2-239.4, 239.6, 569.0, 610-610.9, 622.1-622.2, 622.7</t>
   </si>
   <si>
@@ -1367,6 +1369,9 @@
     <t>Chronic respiratory diseases</t>
   </si>
   <si>
+    <t>D86-D86.2, D86.9, G47.3, J30-J35.9, J37-J39.9, J41-J46.9, J60-J63.8, J66-J68.9, J70, J70.8-J70.9, J82, J84-J84.9, J91, J91.8-J92.9</t>
+  </si>
+  <si>
     <t>135-135.9, 327.2-327.8, 470, 470.9-474.9, 476-476.1, 477-479, 491-493.9, 495-504.9, 506-506.9, 508-509, 515, 516-517.8, 518.6, 518.9, 519.1-519.4</t>
   </si>
   <si>
@@ -1694,6 +1699,9 @@
     <t>Alcohol use disorders</t>
   </si>
   <si>
+    <t>E24.4, F10-F10.9, G31.2, G62.1, G72.1, P04.3, Q86.0, R78.0, X45-X45.9, X65-X65.9, Y15-Y15.9</t>
+  </si>
+  <si>
     <t>291-291.9, 303-303.9, 305.0, 357.5, 790.3, E860</t>
   </si>
   <si>
@@ -2441,12 +2449,18 @@
     <t>Garbage Code (GBD Level 3)</t>
   </si>
   <si>
+    <t>A01, A31-A31.9, A42-A44.9, A49.2, A64-A64.0, A99-A99.0, B17, B17.1, B17.8-B17.9, B19-B19.0, B19.2-B19.9, B37-B46.9, B49-B49.9, B55, B55.1-B55.9, B58-B59.9, B89, B94.2, C14-C14.9, C22.9, C26-C29, C35-C36, C39-C39.9, C42, C46-C46.9, C55-C55.9, C57.9, C59, C63.9, C68, C68.9, C74-C74.9, C75.9-C80.9, C83, C83.9, C85.1, C85.9, C87, C94.6, C97-D00.0, D01, D01.4-D02, D02.4-D02.9, D07, D07.3, D07.6-D09, D09.1, D09.7, D09.9-D10, D10.9, D13, D13.9-D14, D14.4, D17-D21.9, D28, D28.9-D29, D29.9-D30, D30.9, D36.0, D36.9-D37.0, D37.6-D38, D38.6-D39.0, D39.7, D39.9-D40, D40.9-D41, D41.9, D44, D44.9, D48, D48.7-D49.1, D49.5, D49.7-D49.9, D54, D75.9, D79-D85, D87-D88, D89.8-D99, E07.8-E08.9, E17-E19, E34.0, E34.9-E35.8, E37-E39, E47-E49., E62, E69, E87.7, E90-E998, F04-F06.1, F06.5-F07.0, F07.8-F08, F50, F50.8-F50.9, G09-G09.9, G15-G19, G21, G21.2, G21.4-G22.0, G27-G29, G33-G34, G38-G39., G42, G48-G49, G66-G69, G74-G79, G84-G88, G93.8-G94, G96-G96.9, G98-G98.9, I00.0, I03-I04., I14-I14., I16-I19, I29-I29.9, I44-I45.9, I49-I49.9, I51, I51.6-I59, I90-I94, I96-I96.9, I98.4-I98.8, I99-ID5.9, J02.9, J03.9, J04.3, J06, J06.9, J40-J40.9, J47-J59, J65-J65.0, J71-J79, J81.9, J83, J85.9, J87-J89, J90.9, J93.6, J97-J98.0, J98.4-J99.8, K21-K21.9, K22.7, K31.9-K34, K39, K47-K49, K53-K54, K63-K63.4, K63.8-K63.9, K69, K70.4-K70.9, K78-K79, K84, K87-K89, K92, K92.9-K93, K96-K99, L06-L07, L09, L15-L19, L31-L39, L69, L77-L79, N09, N13-N13.5, N13.7-N13.9, N24, N28.8-N28.9, N38, N39.9-N40.9, N54-N59, N66-N69, N78-N79, N84, N84.2-N86, N88-N90.9, N92-N94.9, N95.0, O08-O08.9, O17-O19, O27, O37-O39, O49-O59, O78-O79, O93-O95.9, P06, P16-P18, P30-P34.2, P40-P49, P62-P69, P73, P79, P82, P85-P89, P96.9-P99.9, Q08-Q10.3, Q19, Q29-Q29., Q36.0-Q36.9, Q46-Q49, Q88, Q89.9, Q94, Q99.9-R01.2, R07, R07.1-R07.9, R31-R31.9</t>
+  </si>
+  <si>
     <t>002, 031-031.9, 039-039.9, 070, 070.4-070.9, 085, 085.1-085.9, 088.0-088.7, 112-118.9, 130-130.9, 136.3-136.5, 149-149.9, 155.2, 159-159.9, 165-169, 176-179.9, 183.9-184, 184.5, 184.9, 187, 187.9, 189, 189.9, 190.9, 195-199.9, 202.9, 209, 209.2-209.3, 209.6-210, 211, 211.9-212, 212.9, 214-216.9, 221, 221.9-222, 222.9-223, 223.9, 229, 229.1, 229.9-230.0, 230.9-231, 231.8-231.9, 233, 233.3, 233.6, 233.9-234, 234.9-235, 235.1-235.3, 235.5, 235.9-236, 236.3, 236.6, 236.9, 237.4, 239-239.1, 239.5, 239.7-239.9, 249-249.9, 259.2, 278, 279-279.9, 293.0-293.9, 331.3-331.4, 332.1-332.9, 347-348.9, 349.9, 357, 357.8-357.9, 399-400.0, 406-409.4, 418-419.9, 426-427, 427.4, 429, 429.2-429.9, 459.5-459.9, 464.5, 465, 465.9, 505-505.9, 519, 519.8-519.9, 530.1, 530.7-530.9, 544-549, 559-559.0, 560.4-560.7, 561, 562.2-563, 569, 569.8-569.9, 591-591.9, 593.9, 599.9-600.9, 623.7, 624.6, 637-637.9, 639-639.9, 749.1, 759, 759.9, 779.9, 782.5, 785-785.3, 786.0-786.2, 786.4-786.5, 786.7, 786.9, 788.1-788.2, E986-E987</t>
   </si>
   <si>
     <t>Garbage Code (GBD Level 4)</t>
   </si>
   <si>
+    <t>B16.9, B54-B54.0, B64, B82-B82.9, B83.9, C69, C69.9, C91.1, C91.4-C91.5, C91.7-C91.9, C92.7-C92.9, C93.2, C93.5-C93.7, C93.9, E12-E14.9, G00, G00.9-G02.8, G03.9, I37.9, I42-I42.0, I42.9, I51.5, I64-I64.9, I67, I67.8-I68, I68.8-I69, I69.4-I69.9, J07-J08, J15.9, J17-J19.6, J22-J29, J64-J64.9, P23, P23.5-P23.9, P37.3-P37.4, R73-R73.9, V87-V87.1, V87.4-V88.1, V88.4-V89.9, V99-V99.0, X84-X84.9, Y09-Y09.9, Y85-Y85.9</t>
+  </si>
+  <si>
     <t>070.3, 194-194.0, 194.9, 204.1, 204.5-204.9, 205.8-205.9, 206.2-206.9, 238, 244, 244.9, 250-250.9, 289.8-289.9, 307.5, 320, 320.9, 357.2, 362.0, 425, 425.9, 429.1, 436-437, 437.9-439.6, 482.9-483, 484, 484.8-486.9, 770.0, 790.2, E808-E829</t>
   </si>
   <si>
@@ -2462,6 +2476,9 @@
     <t>Self-harm and interpersonal violence</t>
   </si>
   <si>
+    <t>U00-U03, X60-X64.9, X66-X83.9, X85-Y08.9, Y35-Y38.9, Y87.0-Y87.1, Y89.0-Y89.1</t>
+  </si>
+  <si>
     <t>E950-E979, E990-E999</t>
   </si>
   <si>
@@ -2550,835 +2567,13 @@
   </si>
   <si>
     <t>Appendix Table 6: List of International Classification of Diseases (ICD) codes mapped to the Global Burden of Diseases cause list for causes of death</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C00-C13.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C15-C22.8, C23-C25.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C30-C34.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, C37-C38.8, C40-C41.9, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C43-C45.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C47-C54.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, C56-C57.8,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> C60-C63.8, C64-C67.9, C68.0-C68.8, C69.0-C69.8, C70-C73.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, C75-C75.8, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C81-C82.9, C83.0-C83.8, C84-C85.0, C85.2-C85.8, C86-C86.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C88-C91.0, C91.2-C91.3, C91.6, C92-C92.6, C93-C93.1, C93.3, C93.8, C94-C94.5, C94.7-C96.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>D00.1-D00.2, D01.0-D01.3, D02.0-D02.3, D03-D06.9, D07.0-D07.2, D07.4-D07.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>D09.0, D09.2-D09.3, D09.8, D10.0-D10.7, D11-D12.9, D13.0-D13.7, D14.0-D14.3, D15-D16.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, D22-D24.9, D26.0-D27.9, D28.0-D28.1, D28.7, D29.0-D29.8, D30.0-D30.8, D31-D36, D36.1-D36.7, D37.1-D37.5, D38.0-D38.5, D39.1-D39.2, D39.8, D40.0-D40.8, D41.0-D41.8, D42-D43.9, D44.0-D44.8, D45-D47.9, D48.0-D48.6, D49.2-D49.4, D49.6, K62.0-K62.1, K63.5, N60-N60.9, N84.0-N84.1, N87-N87.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B16.9, B54-B54.0, B64, B82-B82.9, B83.9, C69, C69.9, C91.1, C91.4-C91.5, C91.7-C91.9, C92.7-C92.9, C93.2, C93.5-C93.7, C93.9, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E12-E14.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, G00, G00.9-G02.8, G03.9, I37.9, I42-I42.0, I42.9, I51.5, I64-I64.9, I67, I67.8-I68, I68.8-I69, I69.4-I69.9, J07-J08, J15.9, J17-J19.6, J22-J29, J64-J64.9, P23, P23.5-P23.9, P37.3-P37.4, R73-R73.9, V87-V87.1, V87.4-V88.1, V88.4-V89.9, V99-V99.0, X84-X84.9, Y09-Y09.9, Y85-Y85.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E24.4, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>F10-F10.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, G31.2, G62.1, G72.1, P04.3, Q86.0, R78.0, X45-X45.9, X65-X65.9, Y15-Y15.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U00-U03, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>X60-X64.9, X66-X83.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, X85-Y08.9, Y35-Y38.9, Y87.0-Y87.1, Y89.0-Y89.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">D86-D86.2, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>D86.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>G47.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J30-J35.9, J37</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-J39.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J41-J46.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J60-J63.8,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> J66-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J68.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, J70, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J70.8-J70.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J84-J84.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, J91, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J91.8-J92.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A01, A31-A31.9, A42-A44.9, A49.2, A64-A64.0, A99-A99.0, B17, B17.1, B17.8-B17.9, B19-B19.0, B19.2-B19.9, B37-B46.9, B49-B49.9, B55, B55.1-B55.9, B58-B59.9, B89, B94.2, C14-C14.9, C22.9, C26-C29, C35-C36, C39-C39.9, C42, C46-C46.9, C55-C55.9, C57.9, C59, C63.9, C68, C68.9, C74-C74.9, C75.9-C80.9, C83, C83.9, C85.1, C85.9, C87, C94.6, C97-D00.0, D01, D01.4-D02, D02.4-D02.9, D07, D07.3, D07.6-D09, D09.1, D09.7, D09.9-D10, D10.9, D13, D13.9-D14, D14.4, D17-D21.9, D28, D28.9-D29, D29.9-D30, D30.9, D36.0, D36.9-D37.0, D37.6-D38, D38.6-D39.0, D39.7, D39.9-D40, D40.9-D41, D41.9, D44, D44.9, D48, D48.7-D49.1, D49.5, D49.7-D49.9, D54, D75.9, D79-D85, D87-D88, D89.8-D99, E07.8-E08.9, E17-E19, E34.0, E34.9-E35.8, E37-E39, E47-E49., E62, E69, E87.7, E90-E998, F04-F06.1, F06.5-F07.0, F07.8-F08, F50, F50.8-F50.9, G09-G09.9, G15-G19, G21, G21.2, G21.4-G22.0, G27-G29, G33-G34, G38-G39., G42, G48-G49, G66-G69, G74-G79, G84-G88, G93.8-G94, G96-G96.9, G98-G98.9, I00.0, I03-I04., I14-I14., I16-I19, I29-I29.9, I44-I45.9, I49-I49.9, I51, I51.6-I59, I90-I94, I96-I96.9, I98.4-I98.8, I99-ID5.9, J02.9, J03.9, J04.3, J06, J06.9, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>J40-J40.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, J47-J59, J65-J65.0, J71-J79, J81.9, J83, J85.9, J87-J89, J90.9, J93.6, J97-J98.0, J98.4-J99.8, K21-K21.9, K22.7, K31.9-K34, K39, K47-K49, K53-K54, K63-K63.4, K63.8-K63.9, K69, K70.4-K70.9, K78-K79, K84, K87-K89, K92, K92.9-K93, K96-K99, L06-L07, L09, L15-L19, L31-L39, L69, L77-L79, N09, N13-N13.5, N13.7-N13.9, N24, N28.8-N28.9, N38, N39.9-N40.9, N54-N59, N66-N69, N78-N79, N84, N84.2-N86, N88-N90.9, N92-N94.9, N95.0, O08-O08.9, O17-O19, O27, O37-O39, O49-O59, O78-O79, O93-O95.9, P06, P16-P18, P30-P34.2, P40-P49, P62-P69, P73, P79, P82, P85-P89, P96.9-P99.9, Q08-Q10.3, Q19, Q29-Q29., Q36.0-Q36.9, Q46-Q49, Q88, Q89.9, Q94, Q99.9-R01.2, R07, R07.1-R07.9, R31-R31.9</t>
-    </r>
-  </si>
-  <si>
-    <t>C69</t>
-  </si>
-  <si>
-    <t>C14-C14.9</t>
-  </si>
-  <si>
-    <t>C22.9</t>
-  </si>
-  <si>
-    <t>C26-C29</t>
-  </si>
-  <si>
-    <t>C35-C36</t>
-  </si>
-  <si>
-    <t>C39-C39.9</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C46-C46.9</t>
-  </si>
-  <si>
-    <t>C55-C55.9</t>
-  </si>
-  <si>
-    <t>C57.9</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>C63.9</t>
-  </si>
-  <si>
-    <t>C68</t>
-  </si>
-  <si>
-    <t>C68.9</t>
-  </si>
-  <si>
-    <t>C74-C74.9</t>
-  </si>
-  <si>
-    <t>C75.9-C80.9</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>C83.9</t>
-  </si>
-  <si>
-    <t>C85.1</t>
-  </si>
-  <si>
-    <t>C85.9</t>
-  </si>
-  <si>
-    <t>C87</t>
-  </si>
-  <si>
-    <t>C94.6</t>
-  </si>
-  <si>
-    <t>C97-D00.0</t>
-  </si>
-  <si>
-    <t>D01</t>
-  </si>
-  <si>
-    <t>D01.4-D02</t>
-  </si>
-  <si>
-    <t>D02.4-D02.9</t>
-  </si>
-  <si>
-    <t>D07</t>
-  </si>
-  <si>
-    <t>D07.3</t>
-  </si>
-  <si>
-    <t>D07.6-D09</t>
-  </si>
-  <si>
-    <t>D09.1</t>
-  </si>
-  <si>
-    <t>D09.7</t>
-  </si>
-  <si>
-    <t>D09.9-D10</t>
-  </si>
-  <si>
-    <t>D10.9</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D13.9-D14</t>
-  </si>
-  <si>
-    <t>D14.4</t>
-  </si>
-  <si>
-    <t>D17-D21.9</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>D28.9-D29</t>
-  </si>
-  <si>
-    <t>D29.9-D30</t>
-  </si>
-  <si>
-    <t>D30.9</t>
-  </si>
-  <si>
-    <t>D36.0</t>
-  </si>
-  <si>
-    <t>D36.9-D37.0</t>
-  </si>
-  <si>
-    <t>D37.6-D38</t>
-  </si>
-  <si>
-    <t>D38.6-D39.0</t>
-  </si>
-  <si>
-    <t>D39.7</t>
-  </si>
-  <si>
-    <t>D39.9-D40</t>
-  </si>
-  <si>
-    <t>D40.9-D41</t>
-  </si>
-  <si>
-    <t>D41.9</t>
-  </si>
-  <si>
-    <t>D44</t>
-  </si>
-  <si>
-    <t>D44.9</t>
-  </si>
-  <si>
-    <t>D48</t>
-  </si>
-  <si>
-    <t>D48.7-D49.1</t>
-  </si>
-  <si>
-    <t>D49.5</t>
-  </si>
-  <si>
-    <t>D49.7-D49.9</t>
-  </si>
-  <si>
-    <t>D54</t>
-  </si>
-  <si>
-    <t>D75.9</t>
-  </si>
-  <si>
-    <t>D79-D85</t>
-  </si>
-  <si>
-    <t>D87-D88</t>
-  </si>
-  <si>
-    <t>D89.8-D99</t>
-  </si>
-  <si>
-    <t>I00.0</t>
-  </si>
-  <si>
-    <t>I03-I04.</t>
-  </si>
-  <si>
-    <t>I14-I14.</t>
-  </si>
-  <si>
-    <t>I16-I19</t>
-  </si>
-  <si>
-    <t>I29-I29.9</t>
-  </si>
-  <si>
-    <t>I44-I45.9</t>
-  </si>
-  <si>
-    <t>I49-I49.9</t>
-  </si>
-  <si>
-    <t>I51</t>
-  </si>
-  <si>
-    <t>I51.6-I59</t>
-  </si>
-  <si>
-    <t>I90-I94</t>
-  </si>
-  <si>
-    <t>I96-I96.9</t>
-  </si>
-  <si>
-    <t>I98.4-I98.8</t>
-  </si>
-  <si>
-    <t>I99-ID5.9</t>
-  </si>
-  <si>
-    <t>J02.9</t>
-  </si>
-  <si>
-    <t>J03.9</t>
-  </si>
-  <si>
-    <t>J04.3</t>
-  </si>
-  <si>
-    <t>J06</t>
-  </si>
-  <si>
-    <t>J06.9</t>
-  </si>
-  <si>
-    <t>J40-J40.9</t>
-  </si>
-  <si>
-    <t>J47-J59</t>
-  </si>
-  <si>
-    <t>J65-J65.0</t>
-  </si>
-  <si>
-    <t>J71-J79</t>
-  </si>
-  <si>
-    <t>J81.9</t>
-  </si>
-  <si>
-    <t>J83</t>
-  </si>
-  <si>
-    <t>J85.9</t>
-  </si>
-  <si>
-    <t>J87-J89</t>
-  </si>
-  <si>
-    <t>J90.9</t>
-  </si>
-  <si>
-    <t>J93.6</t>
-  </si>
-  <si>
-    <t>J97-J98.0</t>
-  </si>
-  <si>
-    <t>J98.4-J99.8</t>
-  </si>
-  <si>
-    <t>C69.9</t>
-  </si>
-  <si>
-    <t>C91.1</t>
-  </si>
-  <si>
-    <t>C91.4-C91.5</t>
-  </si>
-  <si>
-    <t>C91.7-C91.9</t>
-  </si>
-  <si>
-    <t>C92.7-C92.9</t>
-  </si>
-  <si>
-    <t>C93.2</t>
-  </si>
-  <si>
-    <t>C93.5-C93.7</t>
-  </si>
-  <si>
-    <t>C93.9</t>
-  </si>
-  <si>
-    <t>E12-E14.9</t>
-  </si>
-  <si>
-    <t>I37.9</t>
-  </si>
-  <si>
-    <t>I42-I42.0</t>
-  </si>
-  <si>
-    <t>I42.9</t>
-  </si>
-  <si>
-    <t>I51.5</t>
-  </si>
-  <si>
-    <t>I64-I64.9</t>
-  </si>
-  <si>
-    <t>I67</t>
-  </si>
-  <si>
-    <t>I67.8-I68</t>
-  </si>
-  <si>
-    <t>I68.8-I69</t>
-  </si>
-  <si>
-    <t>I69.4-I69.9</t>
-  </si>
-  <si>
-    <t>J07-J08</t>
-  </si>
-  <si>
-    <t>J15.9</t>
-  </si>
-  <si>
-    <t>J17-J19.6</t>
-  </si>
-  <si>
-    <t>J22-J29</t>
-  </si>
-  <si>
-    <t>J64-J64.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3405,27 +2600,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3525,7 +2699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3539,16 +2713,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3567,9 +2737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3607,9 +2777,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3642,9 +2812,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3677,9 +2864,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3858,11 +3062,8 @@
   </sheetPr>
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B294" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A293" sqref="A293:B294"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,11 +3074,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3936,18 +3137,14 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4060,9 +3257,7 @@
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -4558,9 +3753,7 @@
       <c r="A65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4572,7 +3765,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>174</v>
       </c>
@@ -4695,9 +3888,7 @@
       <c r="A78" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4733,7 +3924,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>216</v>
       </c>
@@ -4821,2341 +4012,2317 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="145.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>842</v>
+      <c r="B90" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>846</v>
+        <v>448</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>844</v>
+        <v>558</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C263" s="2"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C265" s="2"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="B306" s="4"/>
       <c r="C306" s="4"/>
     </row>
   </sheetData>
@@ -7168,941 +6335,4 @@
     <ignoredError sqref="C23:C254" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E4976D-7BC7-4916-95D9-B4832B769E3B}">
-  <dimension ref="A1:B114"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>804</v>
-      </c>
-      <c r="B4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B5" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>804</v>
-      </c>
-      <c r="B6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>804</v>
-      </c>
-      <c r="B7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>804</v>
-      </c>
-      <c r="B8" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>804</v>
-      </c>
-      <c r="B9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>804</v>
-      </c>
-      <c r="B10" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>804</v>
-      </c>
-      <c r="B11" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>804</v>
-      </c>
-      <c r="B12" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>804</v>
-      </c>
-      <c r="B13" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>804</v>
-      </c>
-      <c r="B14" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>806</v>
-      </c>
-      <c r="B15" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>806</v>
-      </c>
-      <c r="B16" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B17" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>804</v>
-      </c>
-      <c r="B20" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>804</v>
-      </c>
-      <c r="B21" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>804</v>
-      </c>
-      <c r="B22" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>804</v>
-      </c>
-      <c r="B23" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>806</v>
-      </c>
-      <c r="B24" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>806</v>
-      </c>
-      <c r="B25" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>806</v>
-      </c>
-      <c r="B26" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>806</v>
-      </c>
-      <c r="B27" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>806</v>
-      </c>
-      <c r="B28" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>806</v>
-      </c>
-      <c r="B29" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>806</v>
-      </c>
-      <c r="B30" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>804</v>
-      </c>
-      <c r="B31" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>804</v>
-      </c>
-      <c r="B32" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>804</v>
-      </c>
-      <c r="B33" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>804</v>
-      </c>
-      <c r="B34" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>804</v>
-      </c>
-      <c r="B35" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>804</v>
-      </c>
-      <c r="B36" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>804</v>
-      </c>
-      <c r="B37" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>804</v>
-      </c>
-      <c r="B38" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>804</v>
-      </c>
-      <c r="B39" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>804</v>
-      </c>
-      <c r="B40" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>804</v>
-      </c>
-      <c r="B41" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>804</v>
-      </c>
-      <c r="B42" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>804</v>
-      </c>
-      <c r="B43" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>804</v>
-      </c>
-      <c r="B44" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>804</v>
-      </c>
-      <c r="B45" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>804</v>
-      </c>
-      <c r="B46" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>804</v>
-      </c>
-      <c r="B47" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>804</v>
-      </c>
-      <c r="B48" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>804</v>
-      </c>
-      <c r="B49" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>804</v>
-      </c>
-      <c r="B50" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>804</v>
-      </c>
-      <c r="B51" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>804</v>
-      </c>
-      <c r="B52" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>804</v>
-      </c>
-      <c r="B53" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>804</v>
-      </c>
-      <c r="B54" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>804</v>
-      </c>
-      <c r="B55" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>804</v>
-      </c>
-      <c r="B56" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>804</v>
-      </c>
-      <c r="B57" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>804</v>
-      </c>
-      <c r="B58" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>804</v>
-      </c>
-      <c r="B59" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>804</v>
-      </c>
-      <c r="B60" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>804</v>
-      </c>
-      <c r="B61" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>804</v>
-      </c>
-      <c r="B62" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>804</v>
-      </c>
-      <c r="B63" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>804</v>
-      </c>
-      <c r="B64" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>804</v>
-      </c>
-      <c r="B65" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>804</v>
-      </c>
-      <c r="B66" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>804</v>
-      </c>
-      <c r="B67" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>804</v>
-      </c>
-      <c r="B68" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>804</v>
-      </c>
-      <c r="B69" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>806</v>
-      </c>
-      <c r="B70" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>804</v>
-      </c>
-      <c r="B71" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>804</v>
-      </c>
-      <c r="B72" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>804</v>
-      </c>
-      <c r="B73" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>804</v>
-      </c>
-      <c r="B74" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B75" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>806</v>
-      </c>
-      <c r="B76" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>806</v>
-      </c>
-      <c r="B77" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>806</v>
-      </c>
-      <c r="B78" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>804</v>
-      </c>
-      <c r="B79" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>804</v>
-      </c>
-      <c r="B80" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>804</v>
-      </c>
-      <c r="B81" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>806</v>
-      </c>
-      <c r="B82" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>804</v>
-      </c>
-      <c r="B83" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>806</v>
-      </c>
-      <c r="B84" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>806</v>
-      </c>
-      <c r="B85" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>806</v>
-      </c>
-      <c r="B86" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>806</v>
-      </c>
-      <c r="B87" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>806</v>
-      </c>
-      <c r="B88" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>804</v>
-      </c>
-      <c r="B89" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>804</v>
-      </c>
-      <c r="B90" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>804</v>
-      </c>
-      <c r="B91" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>804</v>
-      </c>
-      <c r="B92" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>804</v>
-      </c>
-      <c r="B93" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>804</v>
-      </c>
-      <c r="B94" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B95" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>804</v>
-      </c>
-      <c r="B96" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>804</v>
-      </c>
-      <c r="B97" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>806</v>
-      </c>
-      <c r="B98" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>806</v>
-      </c>
-      <c r="B99" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>806</v>
-      </c>
-      <c r="B100" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>806</v>
-      </c>
-      <c r="B101" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>804</v>
-      </c>
-      <c r="B102" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>804</v>
-      </c>
-      <c r="B103" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>806</v>
-      </c>
-      <c r="B104" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>804</v>
-      </c>
-      <c r="B105" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>804</v>
-      </c>
-      <c r="B106" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>804</v>
-      </c>
-      <c r="B107" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>804</v>
-      </c>
-      <c r="B108" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>804</v>
-      </c>
-      <c r="B109" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>804</v>
-      </c>
-      <c r="B110" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>804</v>
-      </c>
-      <c r="B111" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>804</v>
-      </c>
-      <c r="B112" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>804</v>
-      </c>
-      <c r="B113" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>804</v>
-      </c>
-      <c r="B114" t="s">
-        <v>937</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B115">
-    <sortCondition ref="B2:B115"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>